--- a/MEDIA/_1101 _001_會計科目餘額明細.xlsx
+++ b/MEDIA/_1101 _001_會計科目餘額明細.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I71"/>
+  <dimension ref="A1:I170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -356,7 +356,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>森邦(股)會計科目餘額明細(_1101 _001_2020-10-16~2020-10-16)</t>
+          <t>森邦(股)會計科目餘額明細(_1101 _001_2020-11-15~2020-11-17)</t>
         </is>
       </c>
     </row>
@@ -419,7 +419,7 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>864587</v>
+        <v>8107</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
@@ -427,7 +427,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -437,38 +437,38 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>龜山大同	                                   </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>存現                            </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>27637</v>
       </c>
       <c r="F4" t="n">
-        <v>-952527</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>-87940</v>
+        <v>35744</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>110205</t>
+          <t>111466</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000892</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -478,38 +478,38 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>北市石牌	                                   </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>沖10/15收現                      </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>19615</v>
       </c>
       <c r="F5" t="n">
-        <v>-360187</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>-448127</v>
+        <v>55359</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>110205</t>
+          <t>111468</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000867</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -519,7 +519,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>其他                                      </t>
+          <t>板橋新民	                                   </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -528,29 +528,29 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2162</v>
+        <v>21327</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>-445965</v>
+        <v>76686</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>110197</t>
+          <t>111468</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1000000</t>
+          <t>1000930</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -560,7 +560,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>苑裡新興                                    </t>
+          <t>永和中山	                                   </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -569,29 +569,29 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>16899</v>
+        <v>7300</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>-429066</v>
+        <v>83986</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>110163</t>
+          <t>111459</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1000811</t>
+          <t>1000869</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>大雅中山                                    </t>
+          <t>中壢三光	                                   </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -610,29 +610,29 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5615</v>
+        <v>15870</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>-423451</v>
+        <v>99856</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>110163</t>
+          <t>111459</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1000022</t>
+          <t>1000934</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>台中文華	                                   </t>
+          <t>內壢永福                                    </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -651,29 +651,29 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>18851</v>
+        <v>11994</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>-404600</v>
+        <v>111850</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>110163</t>
+          <t>111462</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1000921</t>
+          <t>1000392</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>三峽中山                                    </t>
+          <t>內壢元智                                    </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -692,29 +692,29 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4800</v>
+        <v>10127</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>-399800</v>
+        <v>121977</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>110167</t>
+          <t>111462</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1000610</t>
+          <t>1000396</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>八德介壽                                    </t>
+          <t>萬能科大                                    </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -733,29 +733,29 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>10821</v>
+        <v>9115</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-388979</v>
+        <v>131092</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>110167</t>
+          <t>111462</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1000009</t>
+          <t>1000401</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -765,7 +765,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>台中逢大                                    </t>
+          <t>北市景福	                                   </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -774,29 +774,29 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>42630</v>
+        <v>14500</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>-346349</v>
+        <v>145592</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>110163</t>
+          <t>111459</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1000690</t>
+          <t>1000951</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -806,7 +806,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>其他                                      </t>
+          <t>淡水海都	                                   </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -815,29 +815,29 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>360</v>
+        <v>13200</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>-345989</v>
+        <v>158792</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>110163</t>
+          <t>111463</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>1000000</t>
+          <t>1000884</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -847,38 +847,38 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>汐止康寧                                    </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>沖11/16總收現金                    </t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>7000</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-1164503</v>
       </c>
       <c r="G14" t="n">
-        <v>-338989</v>
+        <v>-1005711</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>110167</t>
+          <t>111472</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1000632</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -888,38 +888,38 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>金山中山                                    </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>現金換振興卷                        </t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>7499</v>
+        <v>1000</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>-331490</v>
+        <v>-1004711</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>110167</t>
+          <t>111472</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>1000276</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -929,38 +929,38 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>台南崇德                                    </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>支付11/16外務停車費                  </t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>38197</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="G16" t="n">
-        <v>-293293</v>
+        <v>-1004736</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>110163</t>
+          <t>111472</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>1000297</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -970,38 +970,38 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>台南崇明                                    </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>10910台北展NO73戴季穎/戴欣蓓 龍潭梅龍 暫收+保證</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>27347</v>
+        <v>89500</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-265946</v>
+        <v>-915236</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>110163</t>
+          <t>111472</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>1000482</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>彰化彰美                                    </t>
+          <t>其他                                      </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1020,29 +1020,29 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>11200</v>
+        <v>783</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>-254746</v>
+        <v>-914453</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>110171</t>
+          <t>111415</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>1000164</t>
+          <t>1000000</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1052,7 +1052,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>彰化實踐                                    </t>
+          <t>其他                                      </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1061,29 +1061,29 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>23000</v>
+        <v>504</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>-231746</v>
+        <v>-913949</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>110171</t>
+          <t>111415</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>1000239</t>
+          <t>1000000</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>仁德嘉藥                                    </t>
+          <t>南崁台茂                                    </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1102,29 +1102,29 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>13642</v>
+        <v>35913</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-218104</v>
+        <v>-878036</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>110163</t>
+          <t>111462</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>1000454</t>
+          <t>1000005</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1134,7 +1134,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>永康永華                                    </t>
+          <t>內壢高中                                    </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1143,29 +1143,29 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>28940</v>
+        <v>21152</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>-189164</v>
+        <v>-856884</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>110163</t>
+          <t>111462</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>1000751</t>
+          <t>1000133</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>彰化金馬                                    </t>
+          <t>板橋國光                                    </t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1184,29 +1184,29 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>7500</v>
+        <v>9991</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>-181664</v>
+        <v>-846893</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>110171</t>
+          <t>111463</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>1000379</t>
+          <t>1000176</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1216,7 +1216,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>小港宏平                                    </t>
+          <t>板橋新生                                    </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1225,29 +1225,29 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>44758</v>
+        <v>18492</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>-136906</v>
+        <v>-828401</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>110163</t>
+          <t>111463</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>1000861</t>
+          <t>1000288</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>台中新民                                    </t>
+          <t>板橋仁化                                    </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1266,29 +1266,29 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>13606</v>
+        <v>24359</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>-123300</v>
+        <v>-804042</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>110163</t>
+          <t>111463</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>1000660</t>
+          <t>1000341</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>台中大進	                                   </t>
+          <t>泰山海德堡                                   </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1307,29 +1307,29 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>9337</v>
+        <v>9632</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>-113963</v>
+        <v>-794410</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>110163</t>
+          <t>111463</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>1000774</t>
+          <t>1000469</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>斗六文化                                    </t>
+          <t>泰山仁武                                    </t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1348,29 +1348,29 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>10718</v>
+        <v>14700</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>-103245</v>
+        <v>-779710</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>110171</t>
+          <t>111463</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>1000389</t>
+          <t>1000506</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1380,7 +1380,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>彰化彰德                                    </t>
+          <t>蘆洲鷺江                                    </t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1389,29 +1389,29 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>17300</v>
+        <v>19543</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>-85945</v>
+        <v>-760167</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>110171</t>
+          <t>111463</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>1000498</t>
+          <t>1000713</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1421,7 +1421,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>台中晨津	                                   </t>
+          <t>板橋大同                                    </t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1430,29 +1430,29 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>2199</v>
+        <v>19247</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>-83746</v>
+        <v>-740920</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>110163</t>
+          <t>111463</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>1000933</t>
+          <t>1000729</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>台中海德堡                                   </t>
+          <t>中和積穗                                    </t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1471,29 +1471,29 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>12220</v>
+        <v>27162</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>-71526</v>
+        <v>-713758</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>110163</t>
+          <t>111450</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>1000037</t>
+          <t>1000025</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>彰化秀傳                                    </t>
+          <t>淡水新民	                                   </t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1512,29 +1512,29 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>30100</v>
+        <v>11968</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>-41426</v>
+        <v>-701790</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>110171</t>
+          <t>111463</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>1000667</t>
+          <t>1000839</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>沙鹿四平	                                   </t>
+          <t>蘆洲長安	                                   </t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1553,29 +1553,29 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>17000</v>
+        <v>17400</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>-24426</v>
+        <v>-684390</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>110171</t>
+          <t>111463</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>1000837</t>
+          <t>1000932</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1585,7 +1585,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>台中忠勇店                                   </t>
+          <t>楊梅三民                                    </t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1594,29 +1594,29 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>4793</v>
+        <v>23220</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>-19633</v>
+        <v>-661170</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>110163</t>
+          <t>111450</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>1000728</t>
+          <t>1000068</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1626,7 +1626,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>台中嶺東                                    </t>
+          <t>永和得和                                    </t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1635,29 +1635,29 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>7626</v>
+        <v>27230</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>-12007</v>
+        <v>-633940</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>110163</t>
+          <t>111450</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>1000154</t>
+          <t>1000162</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1667,7 +1667,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>彰化牛埔                                    </t>
+          <t>桃園經國                                    </t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1676,29 +1676,29 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>7400</v>
+        <v>49000</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>-4607</v>
+        <v>-584940</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>110171</t>
+          <t>111465</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>1000900</t>
+          <t>1000020</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1708,7 +1708,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>台中水景	                                   </t>
+          <t>永和民權                                    </t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1717,29 +1717,29 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>12516</v>
+        <v>13000</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>7909</v>
+        <v>-571940</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>110165</t>
+          <t>111450</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>1000891</t>
+          <t>1000214</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1749,7 +1749,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>太平勤益	                                   </t>
+          <t>中和多倫多                                   </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1758,29 +1758,29 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>8591</v>
+        <v>26430</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>16500</v>
+        <v>-545510</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>110165</t>
+          <t>111450</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>1000907</t>
+          <t>1000279</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>大里塗城                                    </t>
+          <t>台北錦州                                    </t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1799,29 +1799,29 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>21929</v>
+        <v>17000</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>38429</v>
+        <v>-528510</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>110165</t>
+          <t>111465</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>1000734</t>
+          <t>1000212</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>土庫新建	                                   </t>
+          <t>北市松隆                                    </t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1840,29 +1840,29 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>13989</v>
+        <v>8503</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>52418</v>
+        <v>-520007</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>110171</t>
+          <t>111465</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>1000919</t>
+          <t>1000339</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1872,7 +1872,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>虎尾林森	                                   </t>
+          <t>楊梅大成                                    </t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1881,29 +1881,29 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>24140</v>
+        <v>22300</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>76558</v>
+        <v>-497707</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>110171</t>
+          <t>111450</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>1000964</t>
+          <t>1000543</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1913,7 +1913,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>后里甲后                                    </t>
+          <t>觀音新坡                                    </t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1922,29 +1922,29 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>9332</v>
+        <v>21788</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>85890</v>
+        <v>-475919</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>110172</t>
+          <t>111450</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>1000228</t>
+          <t>1000617</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1954,7 +1954,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>大里美群                                    </t>
+          <t>桃園同安                                    </t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1963,29 +1963,29 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>31389</v>
+        <v>31100</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>117279</v>
+        <v>-444819</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>110165</t>
+          <t>111465</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>1000451</t>
+          <t>1000526</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1995,7 +1995,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>大里益民                                    </t>
+          <t>中和民樂                                    </t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2004,29 +2004,29 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>21981</v>
+        <v>18927</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>139260</v>
+        <v>-425892</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>110165</t>
+          <t>111450</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>1000639</t>
+          <t>1000645</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2036,7 +2036,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>外埔甲后                                    </t>
+          <t>中和遠雄                                    </t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2045,29 +2045,29 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>11842</v>
+        <v>4358</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>151102</v>
+        <v>-421534</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>110172</t>
+          <t>111450</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>1000272</t>
+          <t>1000694</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2077,7 +2077,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>大甲育英                                    </t>
+          <t>桃園中平                                    </t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2086,29 +2086,29 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>3255</v>
+        <v>11856</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>154357</v>
+        <v>-409678</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>110172</t>
+          <t>111465</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>1000168</t>
+          <t>1000605</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2118,7 +2118,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>沙鹿中興                                    </t>
+          <t>桃園龍壽                                    </t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2127,29 +2127,29 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>13930</v>
+        <v>18615</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>168287</v>
+        <v>-391063</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>110165</t>
+          <t>111465</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>1000050</t>
+          <t>1000771</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2159,7 +2159,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>鹿港彰濱	                                   </t>
+          <t>桃園國聖	                                   </t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2168,29 +2168,29 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>12265</v>
+        <v>13281</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>180552</v>
+        <v>-377782</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>110165</t>
+          <t>111465</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>1000904</t>
+          <t>1000828</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>神岡中山                                    </t>
+          <t>比佛利                                     </t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2209,29 +2209,29 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6000</v>
+        <v>6800</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>186552</v>
+        <v>-370982</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>110172</t>
+          <t>111450</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>1000311</t>
+          <t>1000703</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2241,7 +2241,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>大村大葉                                    </t>
+          <t>中和興南                                    </t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2250,29 +2250,29 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>13800</v>
+        <v>9227</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>200352</v>
+        <v>-361755</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>110172</t>
+          <t>111450</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>1000390</t>
+          <t>1000787</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2282,7 +2282,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>鹿港三民                                    </t>
+          <t>北市吳興	                                   </t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2291,29 +2291,29 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>9520</v>
+        <v>18000</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>209872</v>
+        <v>-343755</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>110165</t>
+          <t>111465</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>1000698</t>
+          <t>1000878</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>秀水中山                                    </t>
+          <t>中和泰和                                    </t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2332,29 +2332,29 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>11731</v>
+        <v>20000</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>221603</v>
+        <v>-323755</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>110165</t>
+          <t>111450</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>1000347</t>
+          <t>1000807</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2364,7 +2364,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>伸港中興	                                   </t>
+          <t>新店永平	                                   </t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2373,29 +2373,29 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>21647</v>
+        <v>9070</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>243250</v>
+        <v>-314685</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>110165</t>
+          <t>111450</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>1000929</t>
+          <t>1000872</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2405,7 +2405,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>二林彰基                                    </t>
+          <t>北市伊通	                                   </t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2414,29 +2414,29 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>15529</v>
+        <v>13506</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>258779</v>
+        <v>-301179</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>110172</t>
+          <t>111465</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>1000424</t>
+          <t>1000924</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2446,7 +2446,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>田中中正                                    </t>
+          <t>桃園國強	                                   </t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2455,29 +2455,29 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>9156</v>
+        <v>14204</v>
       </c>
       <c r="F53" t="n">
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>267935</v>
+        <v>-286975</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>110172</t>
+          <t>111465</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>1000461</t>
+          <t>1000942</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2487,7 +2487,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>和美和線                                    </t>
+          <t>平鎮文化                                    </t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2496,29 +2496,29 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>5300</v>
+        <v>5037</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>273235</v>
+        <v>-281938</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>110165</t>
+          <t>111459</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>1000463</t>
+          <t>1000293</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2528,7 +2528,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>埤頭彰水                                    </t>
+          <t>北市中華                                    </t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2537,29 +2537,29 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>7800</v>
+        <v>5870</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>281035</v>
+        <v>-276068</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>110172</t>
+          <t>111459</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>1000522</t>
+          <t>1000320</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>宜蘭光復                                    </t>
+          <t>板橋篤行                                    </t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2578,29 +2578,29 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>1000</v>
+        <v>50550</v>
       </c>
       <c r="F56" t="n">
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>282035</v>
+        <v>-225518</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>110167</t>
+          <t>111466</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>1000666</t>
+          <t>1000033</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2610,7 +2610,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>宜蘭女中                                    </t>
+          <t>新莊昌明                                    </t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2619,29 +2619,29 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>4100</v>
+        <v>22697</v>
       </c>
       <c r="F57" t="n">
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>286135</v>
+        <v>-202821</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>110167</t>
+          <t>111466</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>1000447</t>
+          <t>1000243</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2651,7 +2651,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>大甲三民                                    </t>
+          <t>土城千歲                                    </t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2660,29 +2660,29 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>25000</v>
+        <v>1305</v>
       </c>
       <c r="F58" t="n">
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>311135</v>
+        <v>-201516</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>110172</t>
+          <t>111468</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>1000669</t>
+          <t>1000559</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2692,7 +2692,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>埔心中正                                    </t>
+          <t>北市汀州三總                                  </t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2701,29 +2701,29 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>11753</v>
+        <v>12000</v>
       </c>
       <c r="F59" t="n">
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>322888</v>
+        <v>-189516</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>110172</t>
+          <t>111459</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>1000766</t>
+          <t>1000415</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2733,7 +2733,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>北斗文苑	                                   </t>
+          <t>蘆竹仁愛                                    </t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2742,29 +2742,29 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>17847</v>
+        <v>5400</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>340735</v>
+        <v>-184116</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>110172</t>
+          <t>111462</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>1000838</t>
+          <t>1000201</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2774,7 +2774,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>宜蘭南屏                                    </t>
+          <t>新莊建安                                    </t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2783,29 +2783,29 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>7350</v>
+        <v>316</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>348085</v>
+        <v>-183800</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>110167</t>
+          <t>111466</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>1000755</t>
+          <t>1000246</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2815,7 +2815,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>大甲經國	                                   </t>
+          <t>三重大仁                                    </t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2824,29 +2824,29 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>5645</v>
+        <v>10748</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>353730</v>
+        <v>-173052</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>110172</t>
+          <t>111466</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>1000858</t>
+          <t>1000258</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2856,7 +2856,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>宜蘭東港                                    </t>
+          <t>板橋龍興                                    </t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2865,29 +2865,29 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>20018</v>
+        <v>9300</v>
       </c>
       <c r="F63" t="n">
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>373748</v>
+        <v>-163752</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>110167</t>
+          <t>111468</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>1000665</t>
+          <t>1000566</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2897,7 +2897,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>宜蘭中山                                    </t>
+          <t>平鎮莎奇拉雅                                  </t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2906,29 +2906,29 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>9400</v>
+        <v>5000</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>383148</v>
+        <v>-158752</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>110167</t>
+          <t>111459</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>1000696</t>
+          <t>1000658</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2938,7 +2938,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>台中忠明                                    </t>
+          <t>平鎮廣德                                    </t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2947,29 +2947,29 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>17300</v>
+        <v>823</v>
       </c>
       <c r="F65" t="n">
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>400448</v>
+        <v>-157929</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>110174</t>
+          <t>111459</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>1000112</t>
+          <t>1000764</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2979,7 +2979,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>台中五權五                                   </t>
+          <t>平鎮上海                                    </t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2988,29 +2988,29 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>12910</v>
+        <v>17391</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>413358</v>
+        <v>-140538</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>110174</t>
+          <t>111459</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>1000494</t>
+          <t>1000769</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3020,7 +3020,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>苗栗府前                                    </t>
+          <t>南崁新南                                    </t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3029,29 +3029,29 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>16400</v>
+        <v>42792</v>
       </c>
       <c r="F67" t="n">
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>429758</v>
+        <v>-97746</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>110163</t>
+          <t>111462</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>1000745</t>
+          <t>1000274</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3061,7 +3061,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>公館五穀                                    </t>
+          <t>林口文化                                    </t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3070,29 +3070,29 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>24726</v>
+        <v>35645</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>454484</v>
+        <v>-62101</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>110163</t>
+          <t>111462</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>1000071</t>
+          <t>1000321</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3102,7 +3102,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>礁溪中山                                    </t>
+          <t>三重捷運                                    </t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3111,29 +3111,29 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>21216</v>
+        <v>24570</v>
       </c>
       <c r="F69" t="n">
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>475700</v>
+        <v>-37531</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>110167</t>
+          <t>111466</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>1000685</t>
+          <t>1000377</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -3143,7 +3143,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>頭城新興                                    </t>
+          <t>三重中正北                                   </t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3152,29 +3152,29 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>8700</v>
+        <v>25500</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>484400</v>
+        <v>-12031</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>110167</t>
+          <t>111466</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>1000333</t>
+          <t>1000722</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>20201016</t>
+          <t>20201116</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -3184,31 +3184,4090 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>北市士商	                                   </t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>22702</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>10671</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>111468</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>1000800</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>20201116</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>板橋樂群	                                   </t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>12917</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>23588</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>111468</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>1000825</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>20201116</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>永和永平                                    </t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>9681</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>33269</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>111459</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>1000818</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>20201116</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>北市木新                                    </t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>19494</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>52763</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>111459</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>1000824</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>20201116</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>南崁中山                                    </t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>12800</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>65563</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>111462</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>1000354</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>20201116</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>林口佳林                                    </t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>25435</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>90998</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>111462</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>1000364</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>20201116</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>三重頂崁	                                   </t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>8998</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>99996</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>111466</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>1000796</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>沖11/17總收現金                    </t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" t="n">
+        <v>-1349784</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-1249788</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>111556</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>沖11/14-11/17總收現金              </t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" t="n">
+        <v>-172000</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-1421788</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>111556</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>轉零用金                          </t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>0</v>
+      </c>
+      <c r="F80" t="n">
+        <v>-100000</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-1521788</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>111556</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>頭城新興                                    </t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Sales Order20047693           </t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>4246</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-1517542</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>111555</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>1000333</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>高雄河堤                                    </t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>24000</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-1493542</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>111541</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>1000585</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>鶯歌鶯桃                                    </t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>19803</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-1473739</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>111541</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>1000607</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>八德介壽                                    </t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>13007</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-1460732</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>111541</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>1000009</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>桃園桃鶯                                    </t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>18630</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-1442102</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>111541</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>1000036</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>三峽中華                                    </t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>18670</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-1423432</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>111541</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>1000094</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>高雄鼎泰                                    </t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>14080</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-1409352</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>111541</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>1000200</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>仁武仁雄                                    </t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>13407</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-1395945</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>111541</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>1000240</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>宜蘭女中                                    </t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>5200</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-1390745</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>111541</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>1000447</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>其他                                      </t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>207</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-1390538</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>111480</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>1000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>三峽中山                                    </t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>17900</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-1372638</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>111541</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>1000610</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>宜蘭東港                                    </t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>2170</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-1370468</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>111541</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>1000665</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>宜蘭光復                                    </t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>12000</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-1358468</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>111541</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>1000666</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>礁溪中山                                    </t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>22594</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-1335874</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>111541</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>1000685</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>其他                                      </t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>151</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-1335723</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>111480</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>1000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>其他                                      </t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>1098</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-1334625</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>111480</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>1000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>其他                                      </t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>918</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-1333707</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>111480</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>1000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>宜蘭中山                                    </t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>10800</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-1322907</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>111541</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>1000696</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>宜蘭南屏                                    </t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>5058</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-1317849</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>111541</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>1000755</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>鶯歌光明	                                   </t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>15779</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-1302070</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>111541</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>1000885</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>台中忠明                                    </t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>8000</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-1294070</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>111543</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>1000112</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>善化光復                                    </t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>40300</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-1253770</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>111543</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>1000125</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>台中高工                                    </t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>22100</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-1231670</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>111543</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>1000167</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>永康大橋                                    </t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>18385</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-1213285</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>111543</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>1000193</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>台南站前                                    </t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>28674</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-1184611</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>111543</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>1000268</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>大甲經國	                                   </t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>8249</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-1176362</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>111545</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>1000858</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>神岡昌平	                                   </t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>41659</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-1134703</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>111545</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>1000931</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>太平勤益	                                   </t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>8439</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-1126264</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>111549</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>1000907</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>伸港中興	                                   </t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>13338</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-1112926</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>111549</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>1000929</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>彰化彰美                                    </t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>6000</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-1106926</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>111551</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>1000164</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>羅東國中                                    </t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>53946</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-1052980</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>111543</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>1000306</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>歸仁中正                                    </t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>26174</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-1026806</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>111543</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>1000316</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>仁德嘉藥                                    </t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>11988</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-1014818</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>111543</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>1000454</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>台中五權五                                   </t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>7145</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-1007673</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>111543</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>1000494</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>羅東站前                                    </t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>26884</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-980789</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>111543</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>1000510</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>善化蓮潭                                    </t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>28213</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-952576</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>111543</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>1000587</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>羅東中華                                    </t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>21419</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-931157</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>111543</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>1000634</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>北市世新                                    </t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>24013</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-907144</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>111543</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>1000661</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>台中學府                                    </t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>31310</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-875834</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>111543</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>1000687</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>善化南科興農	                                 </t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>19737</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-856097</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>111543</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>1000831</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>宜蘭國中	                                   </t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>30429</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-825668</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>111543</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>1000877</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
           <t>台中師苑	                                   </t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>                              </t>
-        </is>
-      </c>
-      <c r="E71" t="n">
-        <v>20000</v>
-      </c>
-      <c r="F71" t="n">
-        <v>0</v>
-      </c>
-      <c r="G71" t="n">
-        <v>504400</v>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>110174</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>11000</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-814668</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>111543</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
         <is>
           <t>1000888</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>豐原西安                                    </t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>25324</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-789344</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>111545</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>1000040</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>新社中和                                    </t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>23396</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-765948</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>111545</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>1000069</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>大甲育英                                    </t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>3293</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-762655</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>111545</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>1000168</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>后里甲后                                    </t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>9160</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-753495</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>111545</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>1000228</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>外埔甲后                                    </t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E127" t="n">
+        <v>9077</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-744418</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>111545</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>1000272</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>神岡中山                                    </t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-741418</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>111545</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>1000311</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>溪湖培英                                    </t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>27665</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-713753</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>111545</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>1000334</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>二林彰基                                    </t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E130" t="n">
+        <v>16206</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-697547</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>111545</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>1000424</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>溪湖太平                                    </t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v>13188</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-684359</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>111545</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>1000518</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>埤頭彰水                                    </t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E132" t="n">
+        <v>7000</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-677359</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>111545</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>1000522</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>大甲三民                                    </t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E133" t="n">
+        <v>9000</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-668359</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>111545</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>1000669</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>北斗文苑	                                   </t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E134" t="n">
+        <v>12451</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-655908</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>111545</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>1000838</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>豐原南陽	                                   </t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E135" t="n">
+        <v>25642</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-630266</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>111545</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>1000856</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>其他                                      </t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E136" t="n">
+        <v>34</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-630232</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>111548</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>1000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>台中海德堡                                   </t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E137" t="n">
+        <v>10445</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-619787</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>111548</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>1000037</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>台中嶺東                                    </t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E138" t="n">
+        <v>7530</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-612257</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>111548</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>1000154</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>台中新民                                    </t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E139" t="n">
+        <v>10574</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-601683</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>111548</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>1000660</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>台中忠勇店                                   </t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E140" t="n">
+        <v>10762</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-590921</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>111548</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>1000728</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>台中大進	                                   </t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E141" t="n">
+        <v>8266</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-582655</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>111548</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>1000774</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>台中晨津	                                   </t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E142" t="n">
+        <v>12805</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-569850</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>111548</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>1000933</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>台中東山                                    </t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E143" t="n">
+        <v>33000</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-536850</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>111549</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>1000229</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>秀水中山                                    </t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E144" t="n">
+        <v>14806</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-522044</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>111549</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>1000347</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>大里益民                                    </t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>36470</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-485574</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>111549</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>1000639</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>鹿港三民                                    </t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>23233</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-462341</v>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>111549</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>1000698</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>沙鹿四平	                                   </t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>25000</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-437341</v>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>111549</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>1000837</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>台中水景	                                   </t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E148" t="n">
+        <v>13000</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-424341</v>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>111549</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>1000891</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>鹿港彰濱	                                   </t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E149" t="n">
+        <v>16110</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-408231</v>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>111549</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>1000904</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>潭子頭家                                    </t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E150" t="n">
+        <v>27000</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-381231</v>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>111551</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>1000640</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>潭子圓通                                    </t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E151" t="n">
+        <v>16153</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-365078</v>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>111551</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>1000778</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>彰化牛埔                                    </t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E152" t="n">
+        <v>14000</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-351078</v>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>111551</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>1000900</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>大雅中山                                    </t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E153" t="n">
+        <v>5470</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-345608</v>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>111552</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>1000022</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>台中上安                                    </t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E154" t="n">
+        <v>18229</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-327379</v>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>111552</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>1000028</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>台中文華	                                   </t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E155" t="n">
+        <v>13836</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-313543</v>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>111552</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>1000921</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>大甲日南	                                   </t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E156" t="n">
+        <v>22747</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-290796</v>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>111552</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>1000948</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>太平旱西	                                   </t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E157" t="n">
+        <v>25787</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-265009</v>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>111549</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>1000957</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>台中松竹                                    </t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E158" t="n">
+        <v>19153</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-245856</v>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>111551</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>1000049</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>烏日中山                                    </t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E159" t="n">
+        <v>27758</v>
+      </c>
+      <c r="F159" t="n">
+        <v>0</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-218098</v>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>111551</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>1000093</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>彰化實踐                                    </t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E160" t="n">
+        <v>19200</v>
+      </c>
+      <c r="F160" t="n">
+        <v>0</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-198898</v>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>111551</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>1000239</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>彰化三民                                    </t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E161" t="n">
+        <v>24373</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-174525</v>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>111551</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>1000359</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>彰化金馬                                    </t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E162" t="n">
+        <v>6800</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-167725</v>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>111551</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>1000379</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>台中安德                                    </t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E163" t="n">
+        <v>29000</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-138725</v>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>111551</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>1000428</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>彰化彰德                                    </t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E164" t="n">
+        <v>13000</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-125725</v>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>111551</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>1000498</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>台中四維                                    </t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E165" t="n">
+        <v>23841</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-101884</v>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>111543</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>1000077</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>苗栗玉清                                    </t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E166" t="n">
+        <v>30000</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-71884</v>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>111552</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>1000105</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>苗栗至公                                    </t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E167" t="n">
+        <v>7700</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-64184</v>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>111552</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>1000308</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>台中逢大                                    </t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E168" t="n">
+        <v>21000</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-43184</v>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>111552</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>1000690</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>苗栗府前                                    </t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E169" t="n">
+        <v>17200</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-25984</v>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>111552</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>1000745</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>苑裡新興                                    </t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E170" t="n">
+        <v>18587</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-7397</v>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>111552</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>1000811</t>
         </is>
       </c>
     </row>
